--- a/biology/Biologie cellulaire et moléculaire/CD68/CD68.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CD68/CD68.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CD68 est une protéine membranaire lysosomale jouant un rôle dans l'endocytose et/ou le trafic lysosomal. C'est le seul membre de la classe D des récepteurs éboueurs. Il est fortement exprimé dans les granules cytoplasmiques et faiblement exprimés à la surface des macrophages, monocytes, granulocytes, basophiles, mastocytes et lymphocytes NK.
 La molécule de CD68 est très hétérogène sur le plan antigénique et que donc les divers anticorps dirigés contre le CD68 présentent des réactivités cellulaires différentes.
